--- a/public/excel/apl_form.xlsx
+++ b/public/excel/apl_form.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finance\Desktop\INFOMINA\HR FILE\FORM\HR Form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INFOMINA\inf_careers\inf_careers\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="45" windowWidth="9360" windowHeight="4560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="APP FORM" sheetId="3" r:id="rId1"/>
@@ -537,7 +537,7 @@
         <xdr:cNvPr id="3076" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000040C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000040C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -586,7 +586,7 @@
         <xdr:cNvPr id="3077" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000050C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000050C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -635,7 +635,7 @@
         <xdr:cNvPr id="3078" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000060C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000060C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1020,23 +1020,23 @@
   <sheetPr transitionEvaluation="1"/>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="87" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A25" colorId="22" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="24" customWidth="1"/>
-    <col min="2" max="4" width="9.6640625" style="24"/>
-    <col min="5" max="5" width="3.6640625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="24"/>
+    <col min="1" max="1" width="18.6328125" style="24" customWidth="1"/>
+    <col min="2" max="4" width="9.6328125" style="24"/>
+    <col min="5" max="5" width="3.6328125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" style="24"/>
     <col min="8" max="8" width="12" style="24" customWidth="1"/>
-    <col min="9" max="9" width="0.33203125" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="9.6640625" style="24"/>
+    <col min="9" max="9" width="0.36328125" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="9.6328125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
         <v>40</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="H1" s="1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1060,7 +1060,7 @@
       <c r="H2" s="1"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="H3" s="39"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1086,13 +1086,13 @@
       </c>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="H6" s="1"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="H7" s="8"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1135,7 +1135,7 @@
       <c r="H8" s="14"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="H9" s="18"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
@@ -1165,13 +1165,13 @@
       <c r="H10" s="22"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.649999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>7</v>
       </c>
@@ -1184,23 +1184,23 @@
       <c r="H13" s="34"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>37</v>
       </c>
       <c r="I14" s="29"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>37</v>
       </c>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="6.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>8</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -1220,19 +1220,19 @@
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:9" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:9" ht="0.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25"/>
     </row>
-    <row r="21" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="3.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
     </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>11</v>
       </c>
@@ -1245,11 +1245,11 @@
       <c r="H23" s="34"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" ht="5.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="5.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="I24" s="29"/>
     </row>
-    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>12</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="H25" s="27"/>
       <c r="I25" s="28"/>
     </row>
-    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>13</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="29"/>
     </row>
-    <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="29"/>
     </row>
-    <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -1329,8 +1329,8 @@
       <c r="H29" s="31"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>26</v>
       </c>
@@ -1341,8 +1341,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>34</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1368,7 +1368,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="40" t="s">
         <v>31</v>
@@ -1378,7 +1378,7 @@
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1386,7 +1386,7 @@
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="42"/>
       <c r="B39" s="40" t="s">
         <v>44</v>
@@ -1396,7 +1396,7 @@
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -1404,7 +1404,7 @@
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="42"/>
       <c r="B41" s="40" t="s">
         <v>43</v>
@@ -1414,12 +1414,12 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>17</v>
       </c>
@@ -1432,35 +1432,35 @@
       <c r="H44" s="34"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>41</v>
       </c>
       <c r="I45" s="29"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
       <c r="I46" s="29"/>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I47" s="29"/>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="29"/>
     </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
@@ -1471,7 +1471,7 @@
       <c r="H50" s="31"/>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -1482,10 +1482,10 @@
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="I52" s="37"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>42</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="44" t="s">
         <v>18</v>
       </c>
@@ -1510,18 +1510,18 @@
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
         <v>21</v>
       </c>

--- a/public/excel/apl_form.xlsx
+++ b/public/excel/apl_form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INFOMINA\inf_careers\inf_careers\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INFOMINA\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>APPLICATION FOR EMPLOYMENT</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>APPLICANT'S PARTICULARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>:</t>
@@ -447,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -490,7 +487,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -500,6 +496,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +537,7 @@
         <xdr:cNvPr id="3076" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000040C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000040C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -586,7 +586,7 @@
         <xdr:cNvPr id="3077" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000050C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000050C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -635,7 +635,7 @@
         <xdr:cNvPr id="3078" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000060C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000060C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1020,8 +1020,8 @@
   <sheetPr transitionEvaluation="1"/>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A25" colorId="22" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="87" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1037,8 +1037,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
-        <v>40</v>
+      <c r="A1" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="39"/>
+      <c r="H3" s="38"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1079,10 +1079,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I4"/>
     </row>
@@ -1107,17 +1107,17 @@
     </row>
     <row r="7" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7"/>
@@ -1127,29 +1127,27 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9"/>
@@ -1157,10 +1155,10 @@
     <row r="10" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="21"/>
       <c r="H10" s="22"/>
       <c r="I10"/>
@@ -1168,12 +1166,12 @@
     <row r="11" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -1186,13 +1184,13 @@
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="29"/>
     </row>
@@ -1202,10 +1200,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>8</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>9</v>
       </c>
       <c r="I17" s="29"/>
     </row>
@@ -1229,12 +1227,12 @@
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -1251,69 +1249,69 @@
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="27"/>
-      <c r="D25" s="41"/>
+      <c r="D25" s="40"/>
       <c r="F25" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="27"/>
       <c r="F26" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="27"/>
       <c r="F27" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="27"/>
       <c r="F28" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="29"/>
@@ -1332,27 +1330,27 @@
     <row r="30" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>27</v>
-      </c>
       <c r="E31" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1369,9 +1367,9 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="40" t="s">
-        <v>31</v>
+      <c r="A37" s="41"/>
+      <c r="B37" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1387,9 +1385,9 @@
       <c r="F38"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="40" t="s">
-        <v>44</v>
+      <c r="A39" s="41"/>
+      <c r="B39" s="39" t="s">
+        <v>43</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1405,9 +1403,9 @@
       <c r="F40"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="40" t="s">
-        <v>43</v>
+      <c r="A41" s="41"/>
+      <c r="B41" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -1416,12 +1414,12 @@
     </row>
     <row r="43" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
@@ -1434,7 +1432,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I45" s="29"/>
     </row>
@@ -1444,19 +1442,19 @@
     </row>
     <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I47" s="29"/>
     </row>
     <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I49" s="29"/>
     </row>
@@ -1486,8 +1484,8 @@
       <c r="I52" s="37"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="44" t="s">
-        <v>42</v>
+      <c r="A53" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
@@ -1499,8 +1497,8 @@
       <c r="I53" s="37"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="s">
-        <v>18</v>
+      <c r="A54" s="43" t="s">
+        <v>17</v>
       </c>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
@@ -1511,19 +1509,19 @@
       <c r="H54" s="37"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="45" t="s">
-        <v>19</v>
+      <c r="A55" s="44" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/apl_form.xlsx
+++ b/public/excel/apl_form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INFOMINA\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Infomina\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -141,9 +141,6 @@
     <t>NOTICE PERIOD:____________________</t>
   </si>
   <si>
-    <t>INFOMINA SDN . BHD.(776590-U)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  personal qualities or achievements not otherwise state in your resume.</t>
   </si>
   <si>
@@ -154,12 +151,15 @@
   </si>
   <si>
     <t>Refer to my resume from Recruitment Portal/Social Network _____________________________</t>
+  </si>
+  <si>
+    <t>INFOMINA BERHAD (776590-U)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -537,7 +537,7 @@
         <xdr:cNvPr id="3076" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000040C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000040C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -586,7 +586,7 @@
         <xdr:cNvPr id="3077" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000050C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000050C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -635,7 +635,7 @@
         <xdr:cNvPr id="3078" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000060C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000060C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="87" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1038,7 +1038,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1387,7 +1387,7 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="41"/>
       <c r="B39" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1405,7 +1405,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I45" s="29"/>
     </row>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
